--- a/data/trans_dic/P23_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>8,52%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>13,45%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>10,84%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 15,86</t>
+          <t>4,55; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 22,25</t>
+          <t>6,87; 22,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,19</t>
+          <t>0,93; 9,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,8</t>
+          <t>4,78; 18,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 20,74</t>
+          <t>4,15; 15,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 19,98</t>
+          <t>7,45; 21,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 16,05</t>
+          <t>8,72; 20,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 23,0</t>
+          <t>8,05; 18,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 16,09</t>
+          <t>5,88; 14,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,99</t>
+          <t>2,88; 11,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,95</t>
+          <t>7,57; 22,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 16,23</t>
+          <t>3,68; 15,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 15,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 18,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 9,99</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 12,27</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 16,04</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 15,97</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>14,59%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>9,71%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,57%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,85%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>12,22%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,6</t>
+          <t>5,32; 14,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 23,44</t>
+          <t>8,27; 27,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 24,75</t>
+          <t>7,85; 25,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 22,24</t>
+          <t>5,95; 16,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 16,9</t>
+          <t>8,93; 22,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 18,5</t>
+          <t>9,38; 23,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 26,33</t>
+          <t>6,74; 16,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,77</t>
+          <t>9,84; 19,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 13,59</t>
+          <t>15,81; 26,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,19</t>
+          <t>7,57; 19,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,74; 22,73</t>
+          <t>6,07; 14,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,29</t>
+          <t>5,87; 15,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 13,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 21,81</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 23,36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 16,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,9; 17,41</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 17,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>15,12%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>18,67%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,01%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>15,54%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,97%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>16,8%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 27,74</t>
+          <t>8,95; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,92</t>
+          <t>7,37; 14,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 21,66</t>
+          <t>12,89; 22,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 20,71</t>
+          <t>10,41; 19,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,39</t>
+          <t>10,92; 20,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,76</t>
+          <t>11,79; 25,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,66</t>
+          <t>9,67; 17,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 23,59</t>
+          <t>16,26; 24,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 19,64</t>
+          <t>13,78; 21,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,38</t>
+          <t>8,19; 15,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,29</t>
+          <t>13,55; 23,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 20,63</t>
+          <t>7,3; 16,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 16,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 18,45</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 20,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 16,17</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 20,45</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 19,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>16,82%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>16,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>18,01%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,98%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,14%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>17,38%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 20,19</t>
+          <t>9,49; 20,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 20,65</t>
+          <t>12,76; 20,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,81</t>
+          <t>11,39; 20,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 22,88</t>
+          <t>6,7; 14,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 19,42</t>
+          <t>11,52; 22,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 21,42</t>
+          <t>16,62; 28,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 22,72</t>
+          <t>10,32; 18,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 23,2</t>
+          <t>13,32; 21,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,11</t>
+          <t>14,88; 22,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 19,99</t>
+          <t>10,22; 18,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,57; 20,63</t>
+          <t>13,3; 24,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 21,79</t>
+          <t>13,37; 22,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 17,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 19,64</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 20,46</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 15,43</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 21,24</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 23,9</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>17,46%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,72%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>19,6%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>14,38%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>12,98%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>18,58%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 23,96</t>
+          <t>12,72; 23,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 19,21</t>
+          <t>10,93; 19,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 19,37</t>
+          <t>9,8; 19,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 24,45</t>
+          <t>11,31; 23,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 16,58</t>
+          <t>12,38; 23,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 24,49</t>
+          <t>18,13; 30,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,87</t>
+          <t>7,96; 17,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 25,5</t>
+          <t>15,05; 25,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,47</t>
+          <t>8,64; 16,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 20,31</t>
+          <t>9,75; 21,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,24</t>
+          <t>14,61; 25,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,3</t>
+          <t>12,1; 22,34</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 18,61</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 20,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 16,84</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 20,54</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>15,01; 22,78</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 24,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
           <t>18,65%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,65%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,14%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,72%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>15,84%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 24,96</t>
+          <t>6,7; 23,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 24,5</t>
+          <t>8,94; 24,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 26,65</t>
+          <t>13,01; 26,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 26,78</t>
+          <t>9,28; 22,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 16,68</t>
+          <t>12,19; 25,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,49</t>
+          <t>10,25; 23,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 19,82</t>
+          <t>7,84; 18,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 20,67</t>
+          <t>9,57; 17,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,92</t>
+          <t>10,69; 23,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,3; 19,03</t>
+          <t>10,04; 21,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,18</t>
+          <t>8,75; 21,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,54</t>
+          <t>14,57; 28,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 17,2</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 18,26</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 21,54</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>10,93; 19,2</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 21,33</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 24,12</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>15,29%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>12,53%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15,67%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>12,68%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>15,48%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,7</t>
+          <t>10,23; 14,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,44</t>
+          <t>11,76; 16,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,4</t>
+          <t>11,92; 16,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,89</t>
+          <t>10,37; 14,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,72; 14,51</t>
+          <t>12,85; 17,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,66; 18,29</t>
+          <t>15,69; 20,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,51</t>
+          <t>10,92; 14,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,15</t>
+          <t>14,5; 18,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,4</t>
+          <t>14,08; 17,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 16,56</t>
+          <t>10,56; 14,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 16,26</t>
+          <t>13,58; 18,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,17</t>
+          <t>12,48; 17,13</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,97; 13,89</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 16,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 16,51</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 13,97</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 17,13</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 18,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43309</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>68306</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16285</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44073</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5388</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63415</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63963</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49050</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28530</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>106724</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>132269</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>65336</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>72603</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8488</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22827; 69787</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35986; 120278</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4746; 46577</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22221; 83888</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1746; 6590</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3164; 8940</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40618; 96579</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41440; 93279</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30223; 76592</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13766; 52654</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2830; 8415</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1420; 5911</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>76426; 147912</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>93025; 191422</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40711; 102347</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>44950; 115592</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5573; 12748</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5451; 12938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51946</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>81570</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81376</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>58272</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7364</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56327</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72279</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108799</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>61368</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>108273</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>153849</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>190176</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>119640</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11864</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30341; 80875</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46325; 153730</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46646; 149615</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34512; 93730</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4454; 11278</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4552; 11496</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34630; 84061</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49990; 98054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>81776; 137282</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38221; 96679</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2865; 6960</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2702; 7188</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>75460; 145176</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>111298; 233014</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>143044; 259697</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>83602; 173559</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8637; 16906</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8314; 16552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86690</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>71648</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>115213</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>97193</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8994</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>94843</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>144993</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>123292</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82023</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>181533</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>216641</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>238504</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>179216</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19059</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16410</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>61421; 122953</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49662; 97530</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>87348; 154194</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70675; 132379</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6498; 12434</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7167; 15211</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68925; 127522</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>116205; 176182</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98334; 152431</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58784; 111658</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7305; 12834</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3989; 8800</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>145499; 227515</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>179803; 256213</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>198941; 286451</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>140320; 225808</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15211; 23190</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>12503; 22248</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86822</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>107736</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>99362</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67187</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9752</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12485</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94955</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>113478</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120536</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92014</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9440</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9484</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>181777</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>221214</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>219898</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>159201</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>19193</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>21969</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>61176; 130001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82402; 135243</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72005; 131520</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43956; 95674</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6678; 12923</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9385; 16110</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70334; 124334</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>88972; 142818</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97525; 148752</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66968; 121982</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6973; 12612</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7125; 12138</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>144944; 227425</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>187388; 258037</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>187565; 263428</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>123416; 202325</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>15212; 23445</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>17847; 26239</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84814</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73044</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>68438</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>80845</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10816</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>60870</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98820</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64112</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>76317</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9478</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7678</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>145684</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>171864</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>132550</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>157163</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>17197</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>62351; 115853</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54517; 98922</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48382; 95167</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55103; 113846</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5472; 10531</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8130; 13619</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>40509; 86623</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>74854; 124774</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44327; 85260</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>50132; 108495</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7062; 12400</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5559; 10261</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>113944; 185924</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>140014; 206988</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>105409; 169531</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>119462; 205707</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>13891; 21090</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>14995; 22163</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>64499</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>70954</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>97938</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81440</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8531</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7019</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83773</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>91556</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>105033</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>110264</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8827</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13236</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>148272</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>202971</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>191704</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>17358</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>20254</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>35710; 125991</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>46250; 124422</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>68744; 140515</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>51649; 125934</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5650; 11633</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4652; 10488</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>55481; 131337</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>65098; 122349</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>73195; 159411</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>72783; 157779</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5532; 13696</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9211; 18297</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>103669; 213462</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>124390; 218615</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>156445; 261280</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>140010; 246014</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>12679; 23373</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>15802; 26201</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>418080</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>473257</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>478612</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>429010</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53442</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>454184</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>585089</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>570822</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>450516</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47425</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>43912</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>872264</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1058346</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1049434</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>879526</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>93287</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>97355</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>350546; 501785</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>402166; 574946</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>409697; 562303</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>354738; 503845</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38548; 52919</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46833; 61972</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>392005; 536552</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>519653; 651772</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>506563; 644683</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>379668; 526779</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41080; 54638</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>37654; 51676</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>769826; 974844</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>949702; 1164483</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>959413; 1161415</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>767788; 980027</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>83963; 103192</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>87631; 108401</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
